--- a/app/templates/template_协同创新专项.xlsx
+++ b/app/templates/template_协同创新专项.xlsx
@@ -139,7 +139,7 @@
     <t>拨款数额（万元）</t>
   </si>
   <si>
-    <t>{{project.project_code}}</t>
+    <t>{% for project in projects %}{{ project.project_code }}</t>
   </si>
   <si>
     <t>{{project.project_name}}</t>
@@ -160,7 +160,7 @@
     <t>{{project.bank_num}}</t>
   </si>
   <si>
-    <t>{{project.money}}</t>
+    <t>{{project.money}}{% endfor %}</t>
   </si>
   <si>
     <t>合  计</t>
@@ -936,7 +936,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -981,46 +981,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1376,7 +1382,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1559,7 +1565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" ht="42" spans="1:13">
       <c r="A8" s="15" t="s">
         <v>31</v>
       </c>
@@ -1585,30 +1591,30 @@
       <c r="K8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="24" t="s">
+      <c r="L8" s="24"/>
+      <c r="M8" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="26">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="H2:M2"/>
@@ -1623,11 +1629,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:M4"/>
   </mergeCells>
